--- a/public/student_subject_mapping.xlsx
+++ b/public/student_subject_mapping.xlsx
@@ -1,82 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50242d82ed1f2141/Desktop/new feedback/Feedback_system/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\Feedback System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{DB7AD28C-DA31-4F2D-89B3-6928A96D0BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519AEA96-02FC-4B7D-8FB0-F0827A2A7AA3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7AE952-3FE5-45E9-8383-23C1B6A211AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A979551A-F67B-435C-90A9-8AA9AB87FD93}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Discipline ID</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>Subject 1</t>
+  </si>
+  <si>
+    <t>Subject 2</t>
+  </si>
+  <si>
+    <t>Subject 3</t>
+  </si>
+  <si>
+    <t>Subject 4</t>
+  </si>
+  <si>
+    <t>Subject 5</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
   <si>
     <t>unique_id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>branch_name</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>discipline_ID</t>
-  </si>
-  <si>
-    <t>semester</t>
-  </si>
-  <si>
-    <t>subject_1</t>
-  </si>
-  <si>
-    <t>subject_2</t>
+    <t>dummy1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,7 +104,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,7 +141,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -151,7 +153,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -198,23 +200,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -250,23 +235,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,50 +386,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C518FF-751C-4EF7-AAB3-D84E3AC6FB78}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>21111111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G2">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>